--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H2">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I2">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J2">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.21972033333333</v>
+        <v>12.673913</v>
       </c>
       <c r="N2">
-        <v>39.659161</v>
+        <v>38.021739</v>
       </c>
       <c r="O2">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="P2">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="Q2">
-        <v>2.615006098857</v>
+        <v>5.328087677374</v>
       </c>
       <c r="R2">
-        <v>23.535054889713</v>
+        <v>47.952789096366</v>
       </c>
       <c r="S2">
-        <v>0.0002945392528682919</v>
+        <v>0.0004200419230495537</v>
       </c>
       <c r="T2">
-        <v>0.000294539252868292</v>
+        <v>0.0004200419230495536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H3">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I3">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J3">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>103.785567</v>
       </c>
       <c r="O3">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363013</v>
       </c>
       <c r="P3">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363011</v>
       </c>
       <c r="Q3">
-        <v>6.843308931278999</v>
+        <v>14.543748265222</v>
       </c>
       <c r="R3">
-        <v>61.589780381511</v>
+        <v>130.893734386998</v>
       </c>
       <c r="S3">
-        <v>0.0007707909746928849</v>
+        <v>0.001146562211356727</v>
       </c>
       <c r="T3">
-        <v>0.0007707909746928851</v>
+        <v>0.001146562211356727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H4">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I4">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J4">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.261089666666665</v>
+        <v>6.728406666666667</v>
       </c>
       <c r="N4">
-        <v>27.783269</v>
+        <v>20.18522</v>
       </c>
       <c r="O4">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="P4">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="Q4">
-        <v>1.831945408053</v>
+        <v>2.828608705853334</v>
       </c>
       <c r="R4">
-        <v>16.487508672477</v>
+        <v>25.45747835268</v>
       </c>
       <c r="S4">
-        <v>0.0002063397986028694</v>
+        <v>0.0002229944986466377</v>
       </c>
       <c r="T4">
-        <v>0.0002063397986028695</v>
+        <v>0.0002229944986466377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H5">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I5">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J5">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.110909</v>
+        <v>0.1544473333333333</v>
       </c>
       <c r="N5">
-        <v>0.332727</v>
+        <v>0.463342</v>
       </c>
       <c r="O5">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027549</v>
       </c>
       <c r="P5">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027548</v>
       </c>
       <c r="Q5">
-        <v>0.021939020199</v>
+        <v>0.06492935003866668</v>
       </c>
       <c r="R5">
-        <v>0.197451181791</v>
+        <v>0.584364150348</v>
       </c>
       <c r="S5">
-        <v>2.471085104122807E-06</v>
+        <v>5.118731279219667E-06</v>
       </c>
       <c r="T5">
-        <v>2.471085104122807E-06</v>
+        <v>5.118731279219666E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H6">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I6">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J6">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.21972033333333</v>
+        <v>12.673913</v>
       </c>
       <c r="N6">
-        <v>39.659161</v>
+        <v>38.021739</v>
       </c>
       <c r="O6">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="P6">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="Q6">
-        <v>13.82817999454222</v>
+        <v>0.593202497965</v>
       </c>
       <c r="R6">
-        <v>124.45361995088</v>
+        <v>5.338822481685</v>
       </c>
       <c r="S6">
-        <v>0.001557526694068125</v>
+        <v>4.676535618231857E-05</v>
       </c>
       <c r="T6">
-        <v>0.001557526694068125</v>
+        <v>4.676535618231855E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H7">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I7">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J7">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>103.785567</v>
       </c>
       <c r="O7">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363013</v>
       </c>
       <c r="P7">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363011</v>
       </c>
       <c r="Q7">
-        <v>36.18749023237333</v>
+        <v>1.619227821145</v>
       </c>
       <c r="R7">
-        <v>325.68741209136</v>
+        <v>14.573050390305</v>
       </c>
       <c r="S7">
-        <v>0.004075950851847216</v>
+        <v>0.0001276524729008026</v>
       </c>
       <c r="T7">
-        <v>0.004075950851847216</v>
+        <v>0.0001276524729008025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H8">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I8">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J8">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.261089666666665</v>
+        <v>6.728406666666667</v>
       </c>
       <c r="N8">
-        <v>27.783269</v>
+        <v>20.18522</v>
       </c>
       <c r="O8">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="P8">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="Q8">
-        <v>9.687346753724443</v>
+        <v>0.3149230740333334</v>
       </c>
       <c r="R8">
-        <v>87.18612078352</v>
+        <v>2.8343076663</v>
       </c>
       <c r="S8">
-        <v>0.001091127044164535</v>
+        <v>2.482708649697639E-05</v>
       </c>
       <c r="T8">
-        <v>0.001091127044164535</v>
+        <v>2.482708649697638E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H9">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I9">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J9">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.110909</v>
+        <v>0.1544473333333333</v>
       </c>
       <c r="N9">
-        <v>0.332727</v>
+        <v>0.463342</v>
       </c>
       <c r="O9">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027549</v>
       </c>
       <c r="P9">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027548</v>
       </c>
       <c r="Q9">
-        <v>0.1160137715733333</v>
+        <v>0.007228907436666667</v>
       </c>
       <c r="R9">
-        <v>1.04412394416</v>
+        <v>0.06506016693</v>
       </c>
       <c r="S9">
-        <v>1.306712424746466E-05</v>
+        <v>5.698938090187787E-07</v>
       </c>
       <c r="T9">
-        <v>1.306712424746467E-05</v>
+        <v>5.698938090187785E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H10">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I10">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J10">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.21972033333333</v>
+        <v>12.673913</v>
       </c>
       <c r="N10">
-        <v>39.659161</v>
+        <v>38.021739</v>
       </c>
       <c r="O10">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="P10">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="Q10">
-        <v>2035.924542826556</v>
+        <v>2962.840133357622</v>
       </c>
       <c r="R10">
-        <v>18323.320885439</v>
+        <v>26665.5612002186</v>
       </c>
       <c r="S10">
-        <v>0.2293148356336375</v>
+        <v>0.2335766869206822</v>
       </c>
       <c r="T10">
-        <v>0.2293148356336375</v>
+        <v>0.2335766869206821</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H11">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I11">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J11">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>103.785567</v>
       </c>
       <c r="O11">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363013</v>
       </c>
       <c r="P11">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363011</v>
       </c>
       <c r="Q11">
-        <v>5327.888379849232</v>
+        <v>8087.479722347165</v>
       </c>
       <c r="R11">
-        <v>47950.99541864309</v>
+        <v>72787.31750112449</v>
       </c>
       <c r="S11">
-        <v>0.6001027161857728</v>
+        <v>0.6375796985520438</v>
       </c>
       <c r="T11">
-        <v>0.6001027161857728</v>
+        <v>0.6375796985520437</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H12">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I12">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J12">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.261089666666665</v>
+        <v>6.728406666666667</v>
       </c>
       <c r="N12">
-        <v>27.783269</v>
+        <v>20.18522</v>
       </c>
       <c r="O12">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="P12">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="Q12">
-        <v>1426.269184994917</v>
+        <v>1572.93120960756</v>
       </c>
       <c r="R12">
-        <v>12836.42266495425</v>
+        <v>14156.38088646804</v>
       </c>
       <c r="S12">
-        <v>0.1606467611379911</v>
+        <v>0.1240026610136136</v>
       </c>
       <c r="T12">
-        <v>0.1606467611379912</v>
+        <v>0.1240026610136136</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H13">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I13">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J13">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.110909</v>
+        <v>0.1544473333333333</v>
       </c>
       <c r="N13">
-        <v>0.332727</v>
+        <v>0.463342</v>
       </c>
       <c r="O13">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027549</v>
       </c>
       <c r="P13">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027548</v>
       </c>
       <c r="Q13">
-        <v>17.08072103091266</v>
+        <v>36.105878089116</v>
       </c>
       <c r="R13">
-        <v>153.726489278214</v>
+        <v>324.952902802044</v>
       </c>
       <c r="S13">
-        <v>0.00192387421700306</v>
+        <v>0.00284642133993931</v>
       </c>
       <c r="T13">
-        <v>0.00192387421700306</v>
+        <v>0.00284642133993931</v>
       </c>
     </row>
   </sheetData>
